--- a/data/trans_dic/P19C08-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19C08-Provincia-trans_dic.xlsx
@@ -726,10 +726,10 @@
       <c r="I5" s="5" t="inlineStr"/>
       <c r="J5" s="5" t="inlineStr"/>
       <c r="K5" s="5" t="n">
-        <v>0.002527981645469465</v>
+        <v>0.002492591101529489</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.002011771957299375</v>
+        <v>0.002011351768860181</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -744,31 +744,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.03613631817962792</v>
+        <v>0.03489324808661764</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.0280895593908619</v>
+        <v>0.02478586122361833</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02543086426649564</v>
+        <v>0.02968445105787827</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>0.03649189861984046</v>
+        <v>0.03699607495194396</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03186542923675934</v>
+        <v>0.02521279639653336</v>
       </c>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="inlineStr"/>
       <c r="K6" s="5" t="n">
-        <v>0.02309576791310386</v>
+        <v>0.02318684530504809</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01830537166224256</v>
+        <v>0.01778011315816196</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01465598984686643</v>
+        <v>0.01269606918992109</v>
       </c>
       <c r="N6" s="5" t="inlineStr"/>
     </row>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.001641436519503436</v>
+        <v>0.001641436519503435</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0.00152252867469328</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.0008313392059871174</v>
+        <v>0.0008313392059871175</v>
       </c>
     </row>
     <row r="8">
@@ -862,26 +862,26 @@
       <c r="C9" s="5" t="inlineStr"/>
       <c r="D9" s="5" t="inlineStr"/>
       <c r="E9" s="5" t="n">
-        <v>0.01584075050022336</v>
+        <v>0.01746528064334668</v>
       </c>
       <c r="F9" s="5" t="inlineStr"/>
       <c r="G9" s="5" t="inlineStr"/>
       <c r="H9" s="5" t="n">
-        <v>0.01618188440250938</v>
+        <v>0.01422813634399699</v>
       </c>
       <c r="I9" s="5" t="inlineStr"/>
       <c r="J9" s="5" t="n">
-        <v>0.008117184640780923</v>
+        <v>0.008308974764740393</v>
       </c>
       <c r="K9" s="5" t="inlineStr"/>
       <c r="L9" s="5" t="n">
-        <v>0.008232073162164765</v>
+        <v>0.008296754142426222</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.009180407265447542</v>
+        <v>0.007062479558984586</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.004156050404005251</v>
+        <v>0.00430805803685822</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
       </c>
       <c r="C11" s="5" t="inlineStr"/>
       <c r="D11" s="5" t="n">
-        <v>0.003395636856694968</v>
+        <v>0.003446715040357386</v>
       </c>
       <c r="E11" s="5" t="n">
         <v>0</v>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.982459881260406e-05</v>
+        <v>0.002858701430898693</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
@@ -963,10 +963,10 @@
         <v>0</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.004738339786914431</v>
+        <v>0.004663218383314956</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.001520352421526296</v>
+        <v>0.001525647273495705</v>
       </c>
       <c r="N11" s="5" t="n">
         <v>0</v>
@@ -981,35 +981,35 @@
       </c>
       <c r="C12" s="5" t="inlineStr"/>
       <c r="D12" s="5" t="n">
-        <v>0.03003999572816976</v>
+        <v>0.03447325912320013</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01579917488222599</v>
+        <v>0.01597275184059544</v>
       </c>
       <c r="F12" s="5" t="inlineStr"/>
       <c r="G12" s="5" t="n">
-        <v>0.02198110634005038</v>
+        <v>0.02274770656291932</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.02382926753903486</v>
+        <v>0.02376135386876917</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.02652334281551677</v>
+        <v>0.02719486917353968</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.008502637490535278</v>
+        <v>0.008433535462461672</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01287696334653765</v>
+        <v>0.01089808341898791</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02259774392792456</v>
+        <v>0.02153671470391147</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01546035665824076</v>
+        <v>0.01589310367183917</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.00516190253729121</v>
+        <v>0.00383525038801032</v>
       </c>
     </row>
     <row r="13">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.001313890137450466</v>
+        <v>0.001311215770103979</v>
       </c>
       <c r="M14" s="5" t="inlineStr"/>
       <c r="N14" s="5" t="inlineStr"/>
@@ -1098,24 +1098,24 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01779960232778238</v>
+        <v>0.02176313328453593</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04100871022266246</v>
+        <v>0.03850194951802867</v>
       </c>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="inlineStr"/>
       <c r="G15" s="5" t="inlineStr"/>
       <c r="H15" s="5" t="n">
-        <v>0.01648358160603288</v>
+        <v>0.01521275239687934</v>
       </c>
       <c r="I15" s="5" t="inlineStr"/>
       <c r="J15" s="5" t="inlineStr"/>
       <c r="K15" s="5" t="n">
-        <v>0.008899559357618259</v>
+        <v>0.00845889742024929</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02276723242998014</v>
+        <v>0.01954888328172062</v>
       </c>
       <c r="M15" s="5" t="inlineStr"/>
       <c r="N15" s="5" t="inlineStr"/>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.00812052737645169</v>
+        <v>0.008120527376451688</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.008071286829494193</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.006949607424124966</v>
+        <v>0.006949607424124964</v>
       </c>
     </row>
     <row r="17">
@@ -1189,15 +1189,15 @@
       <c r="H17" s="5" t="inlineStr"/>
       <c r="I17" s="5" t="inlineStr"/>
       <c r="J17" s="5" t="n">
-        <v>0.002095551649678335</v>
+        <v>0.002023727941404641</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.002629810773142179</v>
+        <v>0.002624672445489061</v>
       </c>
       <c r="L17" s="5" t="inlineStr"/>
       <c r="M17" s="5" t="inlineStr"/>
       <c r="N17" s="5" t="n">
-        <v>0.002365122819842877</v>
+        <v>0.002551534663317063</v>
       </c>
     </row>
     <row r="18">
@@ -1208,28 +1208,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03267472201903219</v>
+        <v>0.02594089459023045</v>
       </c>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>0.01778461590583404</v>
+        <v>0.01781349536666574</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.03443906419101781</v>
+        <v>0.03388180873406931</v>
       </c>
       <c r="H18" s="5" t="inlineStr"/>
       <c r="I18" s="5" t="inlineStr"/>
       <c r="J18" s="5" t="n">
-        <v>0.01924277546763636</v>
+        <v>0.01818697405176592</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0218193366730916</v>
+        <v>0.02366327418588525</v>
       </c>
       <c r="L18" s="5" t="inlineStr"/>
       <c r="M18" s="5" t="inlineStr"/>
       <c r="N18" s="5" t="n">
-        <v>0.01407289899766603</v>
+        <v>0.01436111278599876</v>
       </c>
     </row>
     <row r="19">
@@ -1299,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.007724007511257433</v>
+        <v>0.007743828390024273</v>
       </c>
       <c r="I20" s="5" t="inlineStr"/>
       <c r="J20" s="5" t="n">
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.005801183500476172</v>
+        <v>0.005957646318247305</v>
       </c>
       <c r="M20" s="5" t="inlineStr"/>
       <c r="N20" s="5" t="n">
@@ -1325,31 +1325,31 @@
       </c>
       <c r="C21" s="5" t="inlineStr"/>
       <c r="D21" s="5" t="n">
-        <v>0.01890153504640748</v>
+        <v>0.01892191065011226</v>
       </c>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.02380517766212534</v>
+        <v>0.02728826895993077</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.02897990688452675</v>
+        <v>0.03324035516509649</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.05365603298999467</v>
+        <v>0.05412876523655986</v>
       </c>
       <c r="I21" s="5" t="inlineStr"/>
       <c r="J21" s="5" t="n">
-        <v>0.01455235699231143</v>
+        <v>0.01260722253225359</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.01510883055662237</v>
+        <v>0.01515679444256019</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.0332520283776625</v>
+        <v>0.02964780247829026</v>
       </c>
       <c r="M21" s="5" t="inlineStr"/>
       <c r="N21" s="5" t="n">
-        <v>0.01436572187139724</v>
+        <v>0.01902639944420946</v>
       </c>
     </row>
     <row r="22">
@@ -1385,7 +1385,7 @@
         <v>0.007311031351297781</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.009330842680437098</v>
+        <v>0.009330842680437096</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.003910378620663594</v>
@@ -1411,35 +1411,35 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.001671654719559215</v>
+        <v>0.001651284272255352</v>
       </c>
       <c r="E23" s="5" t="inlineStr"/>
       <c r="F23" s="5" t="n">
-        <v>0.004701132733089692</v>
+        <v>0.00441201942807717</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.001723649167002508</v>
+        <v>0.00172094805727203</v>
       </c>
       <c r="H23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.001965122222640493</v>
+        <v>0.002129671049262081</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.003780036438819526</v>
+        <v>0.003937230010509636</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.0009835050686462026</v>
+        <v>0.001126767336695696</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.001660034033874516</v>
+        <v>0.001657234618220987</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.001042590140884433</v>
+        <v>0.001037163718851283</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.006292581056616489</v>
+        <v>0.006243417013423344</v>
       </c>
     </row>
     <row r="24">
@@ -1450,38 +1450,38 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.009653503457705949</v>
+        <v>0.008629052676771547</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02165310872213014</v>
+        <v>0.02103483627419186</v>
       </c>
       <c r="E24" s="5" t="inlineStr"/>
       <c r="F24" s="5" t="n">
-        <v>0.03531490995416668</v>
+        <v>0.03275464687095458</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.01554140852705374</v>
+        <v>0.01530692029973553</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.009340677946305548</v>
+        <v>0.01027199653755556</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.0221535098374141</v>
+        <v>0.02210234685977781</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.01865123219652477</v>
+        <v>0.01833621367702335</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.01004510928071652</v>
+        <v>0.0096129257079694</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.0117862931470677</v>
+        <v>0.01185263807004479</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.009951893167145769</v>
+        <v>0.01119688530050416</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.02064095514663001</v>
+        <v>0.02078740380453852</v>
       </c>
     </row>
     <row r="25">
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.006530580511188472</v>
+        <v>0.006530580511188471</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.008225802580498112</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.006979836275773661</v>
+        <v>0.006979836275773659</v>
       </c>
     </row>
     <row r="26">
@@ -1540,34 +1540,34 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.001733343963787002</v>
+        <v>0.001754480808983382</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.001631287278128291</v>
+        <v>0.001620477468571519</v>
       </c>
       <c r="E26" s="5" t="inlineStr"/>
       <c r="F26" s="5" t="n">
-        <v>0.003035395621242251</v>
+        <v>0.002621009056715724</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.003409913832921109</v>
+        <v>0.003079890270581284</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.00137045360434278</v>
+        <v>0.001374789845566409</v>
       </c>
       <c r="I26" s="5" t="inlineStr"/>
       <c r="J26" s="5" t="n">
-        <v>0.002395062747116849</v>
+        <v>0.002915626260898356</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.004085801769354107</v>
+        <v>0.004112776357206192</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.002244132494282135</v>
+        <v>0.002245741482861879</v>
       </c>
       <c r="M26" s="5" t="inlineStr"/>
       <c r="N26" s="5" t="n">
-        <v>0.00382607153304185</v>
+        <v>0.003849122876261081</v>
       </c>
     </row>
     <row r="27">
@@ -1578,34 +1578,34 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01648284017894708</v>
+        <v>0.01777339443160759</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01613188313961705</v>
+        <v>0.01584035010689992</v>
       </c>
       <c r="E27" s="5" t="inlineStr"/>
       <c r="F27" s="5" t="n">
-        <v>0.01518158858270618</v>
+        <v>0.01604792563031392</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.02218565583400833</v>
+        <v>0.02155964586284513</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.01278433025751365</v>
+        <v>0.01290610726241866</v>
       </c>
       <c r="I27" s="5" t="inlineStr"/>
       <c r="J27" s="5" t="n">
-        <v>0.0140606705509952</v>
+        <v>0.01394425892431629</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.01552106973543701</v>
+        <v>0.016445432957457</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.01010842152275445</v>
+        <v>0.01064081867454228</v>
       </c>
       <c r="M27" s="5" t="inlineStr"/>
       <c r="N27" s="5" t="n">
-        <v>0.01187853342061321</v>
+        <v>0.01194158553724918</v>
       </c>
     </row>
     <row r="28">
@@ -1653,7 +1653,7 @@
         <v>0.001816551961293764</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.004850742028074525</v>
+        <v>0.004850742028074526</v>
       </c>
     </row>
     <row r="29">
@@ -1664,40 +1664,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.001522666740917682</v>
+        <v>0.001555144074871678</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.003550424457600065</v>
+        <v>0.003726623466314981</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.0003892274479771822</v>
+        <v>0.0003831109980698857</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.002877568250389033</v>
+        <v>0.002757043780622909</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.002917054095926872</v>
+        <v>0.002988509898934472</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.003784531199857505</v>
+        <v>0.003760614952224745</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.000757160941850711</v>
+        <v>0.0007422652981394735</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.002790997405518672</v>
+        <v>0.002783180128585291</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.002929116132979147</v>
+        <v>0.002846355795744142</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.004279168971235351</v>
+        <v>0.004306016745877779</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.0008414931220392887</v>
+        <v>0.000808745911141269</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.003253919495340211</v>
+        <v>0.003303457776330519</v>
       </c>
     </row>
     <row r="30">
@@ -1708,40 +1708,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.006451643546996712</v>
+        <v>0.006112186262954511</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.01036576712801906</v>
+        <v>0.0109859338722544</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.00352769549878764</v>
+        <v>0.003689928347407024</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.009365399669804063</v>
+        <v>0.008754947019978775</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.008704299787514684</v>
+        <v>0.00923025082272794</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.009382687795343438</v>
+        <v>0.009513668871861213</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.004857899004339274</v>
+        <v>0.004717896762286194</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.006728014165048121</v>
+        <v>0.006898478851178653</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.006593956217033763</v>
+        <v>0.006602644460008579</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.008553537528164113</v>
+        <v>0.00851293572534419</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.003314870199365607</v>
+        <v>0.003299546045678222</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.0069609354615779</v>
+        <v>0.00695911107197885</v>
       </c>
     </row>
     <row r="31">
@@ -2034,7 +2034,7 @@
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="inlineStr"/>
       <c r="K6" s="6" t="n">
-        <v>993</v>
+        <v>979</v>
       </c>
       <c r="L6" s="6" t="n">
         <v>1005</v>
@@ -2052,31 +2052,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6920</v>
+        <v>6682</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>7038</v>
+        <v>6210</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>6236</v>
+        <v>7279</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="n">
-        <v>7343</v>
+        <v>7444</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>7942</v>
+        <v>6284</v>
       </c>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="inlineStr"/>
       <c r="K7" s="6" t="n">
-        <v>9070</v>
+        <v>9106</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>9149</v>
+        <v>8887</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>7204</v>
+        <v>6241</v>
       </c>
       <c r="N7" s="6" t="inlineStr"/>
     </row>
@@ -2214,26 +2214,26 @@
       <c r="C11" s="6" t="inlineStr"/>
       <c r="D11" s="6" t="inlineStr"/>
       <c r="E11" s="6" t="n">
-        <v>5753</v>
+        <v>6343</v>
       </c>
       <c r="F11" s="6" t="inlineStr"/>
       <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="n">
-        <v>7069</v>
+        <v>6215</v>
       </c>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>4315</v>
+        <v>4417</v>
       </c>
       <c r="K11" s="6" t="inlineStr"/>
       <c r="L11" s="6" t="n">
-        <v>6941</v>
+        <v>6995</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>6945</v>
+        <v>5343</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>4362</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="12">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>997</v>
+        <v>1012</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>0</v>
@@ -2347,7 +2347,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>7</v>
+        <v>940</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>0</v>
@@ -2359,10 +2359,10 @@
         <v>0</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>2949</v>
+        <v>2902</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0</v>
@@ -2377,35 +2377,35 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>8822</v>
+        <v>10124</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>4590</v>
+        <v>4640</v>
       </c>
       <c r="F15" s="6" t="inlineStr"/>
       <c r="G15" s="6" t="n">
-        <v>6348</v>
+        <v>6570</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>7834</v>
+        <v>7812</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>8163</v>
+        <v>8370</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>2905</v>
+        <v>2882</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>6765</v>
+        <v>5725</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>14065</v>
+        <v>13405</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>9249</v>
+        <v>9508</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>3314</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="16">
@@ -2525,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="M18" s="6" t="inlineStr"/>
       <c r="N18" s="6" t="inlineStr"/>
@@ -2538,24 +2538,24 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>4762</v>
+        <v>5822</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>12839</v>
+        <v>12054</v>
       </c>
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="inlineStr"/>
       <c r="G19" s="6" t="inlineStr"/>
       <c r="H19" s="6" t="n">
-        <v>5651</v>
+        <v>5215</v>
       </c>
       <c r="I19" s="6" t="inlineStr"/>
       <c r="J19" s="6" t="inlineStr"/>
       <c r="K19" s="6" t="n">
-        <v>5047</v>
+        <v>4797</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>14933</v>
+        <v>12822</v>
       </c>
       <c r="M19" s="6" t="inlineStr"/>
       <c r="N19" s="6" t="inlineStr"/>
@@ -2673,15 +2673,15 @@
       <c r="H22" s="6" t="inlineStr"/>
       <c r="I22" s="6" t="inlineStr"/>
       <c r="J22" s="6" t="n">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="L22" s="6" t="inlineStr"/>
       <c r="M22" s="6" t="inlineStr"/>
       <c r="N22" s="6" t="n">
-        <v>968</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="23">
@@ -2692,28 +2692,28 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>5564</v>
+        <v>4417</v>
       </c>
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="n">
-        <v>3367</v>
+        <v>3372</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>5989</v>
+        <v>5892</v>
       </c>
       <c r="H23" s="6" t="inlineStr"/>
       <c r="I23" s="6" t="inlineStr"/>
       <c r="J23" s="6" t="n">
-        <v>4230</v>
+        <v>3998</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>7510</v>
+        <v>8145</v>
       </c>
       <c r="L23" s="6" t="inlineStr"/>
       <c r="M23" s="6" t="inlineStr"/>
       <c r="N23" s="6" t="n">
-        <v>5757</v>
+        <v>5875</v>
       </c>
     </row>
     <row r="24">
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>2046</v>
+        <v>2051</v>
       </c>
       <c r="I26" s="6" t="inlineStr"/>
       <c r="J26" s="6" t="n">
@@ -2837,7 +2837,7 @@
         <v>0</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>2986</v>
+        <v>3067</v>
       </c>
       <c r="M26" s="6" t="inlineStr"/>
       <c r="N26" s="6" t="n">
@@ -2853,31 +2853,31 @@
       </c>
       <c r="C27" s="6" t="inlineStr"/>
       <c r="D27" s="6" t="n">
-        <v>4725</v>
+        <v>4730</v>
       </c>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>5945</v>
+        <v>6815</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>5926</v>
+        <v>6797</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>14210</v>
+        <v>14335</v>
       </c>
       <c r="I27" s="6" t="inlineStr"/>
       <c r="J27" s="6" t="n">
-        <v>3661</v>
+        <v>3171</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>5949</v>
+        <v>5968</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>17118</v>
+        <v>15263</v>
       </c>
       <c r="M27" s="6" t="inlineStr"/>
       <c r="N27" s="6" t="n">
-        <v>7201</v>
+        <v>9538</v>
       </c>
     </row>
     <row r="28">
@@ -2983,35 +2983,35 @@
         <v>0</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="E30" s="6" t="inlineStr"/>
       <c r="F30" s="6" t="n">
-        <v>3280</v>
+        <v>3078</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="H30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>957</v>
+        <v>1037</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>2802</v>
+        <v>2919</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>987</v>
+        <v>1131</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1992</v>
+        <v>1989</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>9055</v>
+        <v>8985</v>
       </c>
     </row>
     <row r="31">
@@ -3022,38 +3022,38 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>4482</v>
+        <v>4007</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>12453</v>
+        <v>12097</v>
       </c>
       <c r="E31" s="6" t="inlineStr"/>
       <c r="F31" s="6" t="n">
-        <v>24639</v>
+        <v>22852</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>8383</v>
+        <v>8256</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>5837</v>
+        <v>6419</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>10790</v>
+        <v>10765</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>13828</v>
+        <v>13594</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>10082</v>
+        <v>9648</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>14144</v>
+        <v>14224</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>9249</v>
+        <v>10406</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>29704</v>
+        <v>29914</v>
       </c>
     </row>
     <row r="32">
@@ -3156,34 +3156,34 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>911</v>
+        <v>922</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="E34" s="6" t="inlineStr"/>
       <c r="F34" s="6" t="n">
-        <v>2340</v>
+        <v>2021</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>2020</v>
+        <v>1825</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>962</v>
+        <v>966</v>
       </c>
       <c r="I34" s="6" t="inlineStr"/>
       <c r="J34" s="6" t="n">
-        <v>1941</v>
+        <v>2363</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>4568</v>
+        <v>4598</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>2999</v>
+        <v>3001</v>
       </c>
       <c r="M34" s="6" t="inlineStr"/>
       <c r="N34" s="6" t="n">
-        <v>6050</v>
+        <v>6087</v>
       </c>
     </row>
     <row r="35">
@@ -3194,34 +3194,34 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>8663</v>
+        <v>9341</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>10226</v>
+        <v>10041</v>
       </c>
       <c r="E35" s="6" t="inlineStr"/>
       <c r="F35" s="6" t="n">
-        <v>11706</v>
+        <v>12374</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>13143</v>
+        <v>12772</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>8978</v>
+        <v>9064</v>
       </c>
       <c r="I35" s="6" t="inlineStr"/>
       <c r="J35" s="6" t="n">
-        <v>11393</v>
+        <v>11299</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>17352</v>
+        <v>18385</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>13507</v>
+        <v>14218</v>
       </c>
       <c r="M35" s="6" t="inlineStr"/>
       <c r="N35" s="6" t="n">
-        <v>18784</v>
+        <v>18884</v>
       </c>
     </row>
     <row r="36">
@@ -3324,40 +3324,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>3738</v>
+        <v>3817</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>10348</v>
+        <v>10862</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>1037</v>
+        <v>1021</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>9777</v>
+        <v>9368</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>7995</v>
+        <v>8191</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>11896</v>
+        <v>11821</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>2171</v>
+        <v>2128</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>10119</v>
+        <v>10090</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>15219</v>
+        <v>14789</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>25923</v>
+        <v>26086</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>4655</v>
+        <v>4474</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>22853</v>
+        <v>23201</v>
       </c>
     </row>
     <row r="39">
@@ -3368,40 +3368,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>15837</v>
+        <v>15004</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>30213</v>
+        <v>32020</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>9399</v>
+        <v>9831</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>31821</v>
+        <v>29746</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>23858</v>
+        <v>25300</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>29493</v>
+        <v>29905</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>13929</v>
+        <v>13528</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>24392</v>
+        <v>25010</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>34260</v>
+        <v>34305</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>51818</v>
+        <v>51572</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>18337</v>
+        <v>18252</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>48888</v>
+        <v>48875</v>
       </c>
     </row>
     <row r="40">
